--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H2">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>1169.628142857519</v>
+        <v>2312.485272706052</v>
       </c>
       <c r="R2">
-        <v>10526.65328571767</v>
+        <v>20812.36745435447</v>
       </c>
       <c r="S2">
-        <v>0.005286290853448566</v>
+        <v>0.009260697745949344</v>
       </c>
       <c r="T2">
-        <v>0.005286290853448567</v>
+        <v>0.009260697745949344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H3">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1796.904053562823</v>
+        <v>1904.347182194728</v>
       </c>
       <c r="R3">
-        <v>16172.13648206541</v>
+        <v>17139.12463975255</v>
       </c>
       <c r="S3">
-        <v>0.008121348242926938</v>
+        <v>0.007626246906653239</v>
       </c>
       <c r="T3">
-        <v>0.008121348242926939</v>
+        <v>0.007626246906653239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H4">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>897.9003924331759</v>
+        <v>1098.67818372554</v>
       </c>
       <c r="R4">
-        <v>8081.103531898582</v>
+        <v>9888.103653529861</v>
       </c>
       <c r="S4">
-        <v>0.004058180936234185</v>
+        <v>0.004399823298180263</v>
       </c>
       <c r="T4">
-        <v>0.004058180936234185</v>
+        <v>0.004399823298180263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H5">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1429.168056881525</v>
+        <v>1110.494104605637</v>
       </c>
       <c r="R5">
-        <v>12862.51251193372</v>
+        <v>9994.446941450735</v>
       </c>
       <c r="S5">
-        <v>0.006459316213678005</v>
+        <v>0.004447141944120259</v>
       </c>
       <c r="T5">
-        <v>0.006459316213678006</v>
+        <v>0.004447141944120259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H6">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>717.9021769859338</v>
+        <v>836.459069258701</v>
       </c>
       <c r="R6">
-        <v>6461.119592873404</v>
+        <v>7528.13162332831</v>
       </c>
       <c r="S6">
-        <v>0.003244654923059472</v>
+        <v>0.003349727113374609</v>
       </c>
       <c r="T6">
-        <v>0.003244654923059473</v>
+        <v>0.003349727113374609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H7">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>942.4417363471299</v>
+        <v>1399.468266466933</v>
       </c>
       <c r="R7">
-        <v>8481.975627124169</v>
+        <v>12595.2143982024</v>
       </c>
       <c r="S7">
-        <v>0.004259491498373526</v>
+        <v>0.005604382771109376</v>
       </c>
       <c r="T7">
-        <v>0.004259491498373527</v>
+        <v>0.005604382771109376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J8">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>33542.07721362953</v>
+        <v>62574.85921975378</v>
       </c>
       <c r="R8">
-        <v>301878.6949226658</v>
+        <v>563173.732977784</v>
       </c>
       <c r="S8">
-        <v>0.1515979049092317</v>
+        <v>0.2505905073511497</v>
       </c>
       <c r="T8">
-        <v>0.1515979049092317</v>
+        <v>0.2505905073511497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J9">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>51530.81761767279</v>
@@ -1013,10 +1013,10 @@
         <v>463777.3585590551</v>
       </c>
       <c r="S9">
-        <v>0.232900423529065</v>
+        <v>0.2063629689630327</v>
       </c>
       <c r="T9">
-        <v>0.232900423529065</v>
+        <v>0.2063629689630326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J10">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>25749.58928361788</v>
+        <v>29729.76022199275</v>
       </c>
       <c r="R10">
-        <v>231746.3035525609</v>
+        <v>267567.8419979347</v>
       </c>
       <c r="S10">
-        <v>0.1163787133041208</v>
+        <v>0.1190573305373951</v>
       </c>
       <c r="T10">
-        <v>0.1163787133041208</v>
+        <v>0.1190573305373951</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J11">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>40985.04777600294</v>
+        <v>30049.49397093837</v>
       </c>
       <c r="R11">
-        <v>368865.4299840264</v>
+        <v>270445.4457384453</v>
       </c>
       <c r="S11">
-        <v>0.1852374060161698</v>
+        <v>0.1203377527926685</v>
       </c>
       <c r="T11">
-        <v>0.1852374060161698</v>
+        <v>0.1203377527926684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J12">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>20587.6802805593</v>
+        <v>22634.22349959449</v>
       </c>
       <c r="R12">
-        <v>185289.1225250337</v>
+        <v>203708.0114963504</v>
       </c>
       <c r="S12">
-        <v>0.09304877505337329</v>
+        <v>0.09064217836022191</v>
       </c>
       <c r="T12">
-        <v>0.09304877505337329</v>
+        <v>0.09064217836022188</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J13">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>27026.92619268939</v>
+        <v>37869.01079556096</v>
       </c>
       <c r="R13">
-        <v>243242.3357342045</v>
+        <v>340821.0971600486</v>
       </c>
       <c r="S13">
-        <v>0.1221518083347348</v>
+        <v>0.1516521930128463</v>
       </c>
       <c r="T13">
-        <v>0.1221518083347348</v>
+        <v>0.1516521930128463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H14">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>20.09409241746333</v>
+        <v>5.663430781905334</v>
       </c>
       <c r="R14">
-        <v>180.84683175717</v>
+        <v>50.970877037148</v>
       </c>
       <c r="S14">
-        <v>9.081793867858946E-05</v>
+        <v>2.268006689398606E-05</v>
       </c>
       <c r="T14">
-        <v>9.081793867858947E-05</v>
+        <v>2.268006689398606E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H15">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>30.87062870203556</v>
+        <v>4.663873356674666</v>
       </c>
       <c r="R15">
-        <v>277.83565831832</v>
+        <v>41.974860210072</v>
       </c>
       <c r="S15">
-        <v>0.0001395239359999367</v>
+        <v>1.867718769556048E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001395239359999368</v>
+        <v>1.867718769556047E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H16">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>15.42583732907556</v>
+        <v>2.690736204273334</v>
       </c>
       <c r="R16">
-        <v>138.83253596168</v>
+        <v>24.21662583846</v>
       </c>
       <c r="S16">
-        <v>6.971913533155404E-05</v>
+        <v>1.077546092767086E-05</v>
       </c>
       <c r="T16">
-        <v>6.971913533155404E-05</v>
+        <v>1.077546092767086E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H17">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>24.55296171730556</v>
+        <v>2.719674183173667</v>
       </c>
       <c r="R17">
-        <v>220.97665545575</v>
+        <v>24.477067648563</v>
       </c>
       <c r="S17">
-        <v>0.0001109703949446404</v>
+        <v>1.089134744990633E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001109703949446404</v>
+        <v>1.089134744990633E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H18">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>12.33348631284667</v>
+        <v>2.048544090877667</v>
       </c>
       <c r="R18">
-        <v>111.00137681562</v>
+        <v>18.436896817899</v>
       </c>
       <c r="S18">
-        <v>5.574284124820065E-05</v>
+        <v>8.203705281404453E-06</v>
       </c>
       <c r="T18">
-        <v>5.574284124820065E-05</v>
+        <v>8.203705281404453E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H19">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>16.19105308287778</v>
+        <v>3.427391193429667</v>
       </c>
       <c r="R19">
-        <v>145.7194777459</v>
+        <v>30.846520740867</v>
       </c>
       <c r="S19">
-        <v>7.317763029419808E-05</v>
+        <v>1.372550747635197E-05</v>
       </c>
       <c r="T19">
-        <v>7.317763029419809E-05</v>
+        <v>1.372550747635197E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H20">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>2434.120979813122</v>
+        <v>1731.577764588225</v>
       </c>
       <c r="R20">
-        <v>21907.0888183181</v>
+        <v>15584.19988129402</v>
       </c>
       <c r="S20">
-        <v>0.01100133538197606</v>
+        <v>0.006934365589577755</v>
       </c>
       <c r="T20">
-        <v>0.01100133538197606</v>
+        <v>0.006934365589577754</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H21">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>3739.549088484378</v>
+        <v>1425.965940481815</v>
       </c>
       <c r="R21">
-        <v>33655.94179635941</v>
+        <v>12833.69346433633</v>
       </c>
       <c r="S21">
-        <v>0.0169013923469564</v>
+        <v>0.005710496722587807</v>
       </c>
       <c r="T21">
-        <v>0.0169013923469564</v>
+        <v>0.005710496722587806</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H22">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1868.626534296955</v>
+        <v>822.6848991566088</v>
       </c>
       <c r="R22">
-        <v>16817.63880867259</v>
+        <v>7404.16409240948</v>
       </c>
       <c r="S22">
-        <v>0.008445507588960788</v>
+        <v>0.003294566361640393</v>
       </c>
       <c r="T22">
-        <v>0.008445507588960788</v>
+        <v>0.003294566361640393</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H23">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2974.251237179617</v>
+        <v>831.5326034449772</v>
       </c>
       <c r="R23">
-        <v>26768.26113461655</v>
+        <v>7483.793431004795</v>
       </c>
       <c r="S23">
-        <v>0.0134425263336674</v>
+        <v>0.00332999833438729</v>
       </c>
       <c r="T23">
-        <v>0.0134425263336674</v>
+        <v>0.003329998334387289</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H24">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1494.031039801892</v>
+        <v>626.3364971062624</v>
       </c>
       <c r="R24">
-        <v>13446.27935821703</v>
+        <v>5637.028473956362</v>
       </c>
       <c r="S24">
-        <v>0.006752473141743729</v>
+        <v>0.002508259427819098</v>
       </c>
       <c r="T24">
-        <v>0.00675247314174373</v>
+        <v>0.002508259427819098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H25">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1961.321824122274</v>
+        <v>1047.915055314172</v>
       </c>
       <c r="R25">
-        <v>17651.89641710046</v>
+        <v>9431.235497827547</v>
       </c>
       <c r="S25">
-        <v>0.008864456351226537</v>
+        <v>0.00419653465699191</v>
       </c>
       <c r="T25">
-        <v>0.008864456351226539</v>
+        <v>0.004196534656991909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H26">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>12.244727954564</v>
+        <v>31.74442884074934</v>
       </c>
       <c r="R26">
-        <v>110.202551591076</v>
+        <v>285.699859566744</v>
       </c>
       <c r="S26">
-        <v>5.534168597468741E-05</v>
+        <v>0.0001271253763566541</v>
       </c>
       <c r="T26">
-        <v>5.534168597468742E-05</v>
+        <v>0.0001271253763566541</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H27">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>18.81162096747733</v>
+        <v>26.14175075049067</v>
       </c>
       <c r="R27">
-        <v>169.304588707296</v>
+        <v>235.275756754416</v>
       </c>
       <c r="S27">
-        <v>8.502163740346205E-05</v>
+        <v>0.000104688602823812</v>
       </c>
       <c r="T27">
-        <v>8.502163740346207E-05</v>
+        <v>0.000104688602823812</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H28">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>9.400035475189334</v>
+        <v>15.08200369265334</v>
       </c>
       <c r="R28">
-        <v>84.600319276704</v>
+        <v>135.73803323388</v>
       </c>
       <c r="S28">
-        <v>4.248471777806623E-05</v>
+        <v>6.039816955786007E-05</v>
       </c>
       <c r="T28">
-        <v>4.248471777806623E-05</v>
+        <v>6.039816955786006E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H29">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>14.96182711123333</v>
+        <v>15.24420565951267</v>
       </c>
       <c r="R29">
-        <v>134.6564440011</v>
+        <v>137.197850935614</v>
       </c>
       <c r="S29">
-        <v>6.762197908111246E-05</v>
+        <v>6.104773191685622E-05</v>
       </c>
       <c r="T29">
-        <v>6.762197908111247E-05</v>
+        <v>6.104773191685622E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H30">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>7.515650943303999</v>
+        <v>11.48241492202467</v>
       </c>
       <c r="R30">
-        <v>67.64085848973599</v>
+        <v>103.341734298222</v>
       </c>
       <c r="S30">
-        <v>3.39679898110487E-05</v>
+        <v>4.59830707860104E-05</v>
       </c>
       <c r="T30">
-        <v>3.396798981104871E-05</v>
+        <v>4.598307078601039E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H31">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>9.866334650946667</v>
+        <v>19.21107188188067</v>
       </c>
       <c r="R31">
-        <v>88.79701185852001</v>
+        <v>172.899646936926</v>
       </c>
       <c r="S31">
-        <v>4.459221928000032E-05</v>
+        <v>7.693364890735788E-05</v>
       </c>
       <c r="T31">
-        <v>4.459221928000032E-05</v>
+        <v>7.693364890735788E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H32">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>36.433573536171</v>
+        <v>8.913025292007111</v>
       </c>
       <c r="R32">
-        <v>327.9021618255389</v>
+        <v>80.21722762806399</v>
       </c>
       <c r="S32">
-        <v>0.0001646664093360212</v>
+        <v>3.569356060576815E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001646664093360212</v>
+        <v>3.569356060576814E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H33">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>55.97303414141599</v>
+        <v>7.339936301432887</v>
       </c>
       <c r="R33">
-        <v>503.757307272744</v>
+        <v>66.059426712896</v>
       </c>
       <c r="S33">
-        <v>0.0002529776153458854</v>
+        <v>2.939388733168014E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002529776153458855</v>
+        <v>2.939388733168013E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H34">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>27.969333822584</v>
+        <v>4.234641645031111</v>
       </c>
       <c r="R34">
-        <v>251.724004403256</v>
+        <v>38.11177480528</v>
       </c>
       <c r="S34">
-        <v>0.0001264111456844337</v>
+        <v>1.695826425357204E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001264111456844337</v>
+        <v>1.695826425357204E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H35">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>44.518165721225</v>
+        <v>4.28018381686489</v>
       </c>
       <c r="R35">
-        <v>400.663491491025</v>
+        <v>38.521654351784</v>
       </c>
       <c r="S35">
-        <v>0.0002012058051967438</v>
+        <v>1.714064478287728E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002012058051967439</v>
+        <v>1.714064478287728E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H36">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>22.36244221440599</v>
+        <v>3.223969003403555</v>
       </c>
       <c r="R36">
-        <v>201.261979929654</v>
+        <v>29.015721030632</v>
       </c>
       <c r="S36">
-        <v>0.0001010700490242796</v>
+        <v>1.291087248650555E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001010700490242796</v>
+        <v>1.291087248650555E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H37">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>29.35678361917</v>
+        <v>5.393978591606222</v>
       </c>
       <c r="R37">
-        <v>264.21105257253</v>
+        <v>48.545807324456</v>
       </c>
       <c r="S37">
-        <v>0.0001326819106400313</v>
+        <v>2.160100476079284E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001326819106400313</v>
+        <v>2.160100476079284E-05</v>
       </c>
     </row>
   </sheetData>
